--- a/AstrumConfig/Tables/Datas/Entity/#ActionTable.xlsx
+++ b/AstrumConfig/Tables/Datas/Entity/#ActionTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowHeight="17600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -141,14 +141,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,148 +597,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,20 +1093,20 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="21.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="31.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="24.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="17.5714285714286" customWidth="1"/>
-    <col min="6" max="7" width="23.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="26.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="19.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="21.8545454545455" customWidth="1"/>
+    <col min="3" max="3" width="31.2818181818182" customWidth="1"/>
+    <col min="4" max="4" width="24.2818181818182" customWidth="1"/>
+    <col min="5" max="5" width="17.5727272727273" customWidth="1"/>
+    <col min="6" max="7" width="23.2818181818182" customWidth="1"/>
+    <col min="8" max="8" width="26.4272727272727" customWidth="1"/>
+    <col min="9" max="9" width="19.5727272727273" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="21.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="21.8545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1171,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>

--- a/AstrumConfig/Tables/Datas/Entity/#ActionTable.xlsx
+++ b/AstrumConfig/Tables/Datas/Entity/#ActionTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17600"/>
+    <workbookView windowWidth="19200" windowHeight="17600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -62,6 +62,15 @@
     <t>Priority</t>
   </si>
   <si>
+    <t>CancelTags</t>
+  </si>
+  <si>
+    <t>BeCancelledTags</t>
+  </si>
+  <si>
+    <t>TempBeCancelledTags</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -113,6 +122,11 @@
     <t>idle</t>
   </si>
   <si>
+    <t>[
+  {"tags":["move","attack","jump","interact"],"rangeFrames":[0,60],"blendOutFrames":3,"priority":0}
+]</t>
+  </si>
+  <si>
     <t>walk_01</t>
   </si>
   <si>
@@ -120,6 +134,16 @@
   </si>
   <si>
     <t>Move</t>
+  </si>
+  <si>
+    <t>[
+  {"tag":"idle","startFromFrames":12,"blendInFrames":4,"priority":0}
+]</t>
+  </si>
+  <si>
+    <t>[
+  {"tags":["attack","jump"],"rangeFrames":[0,60],"blendOutFrames":4,"priority":0},
+]</t>
   </si>
   <si>
     <t>attack_01</t>
@@ -742,8 +766,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,10 +1117,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
@@ -1109,7 +1136,7 @@
     <col min="11" max="11" width="21.8545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1143,94 +1170,112 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" ht="57" customHeight="1" spans="2:13">
       <c r="B5">
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>1001</v>
@@ -1241,22 +1286,26 @@
       <c r="K5">
         <v>10</v>
       </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" ht="174" spans="2:13">
       <c r="B6">
         <v>1002</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>1001</v>
@@ -1268,10 +1317,16 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K6">
         <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -1279,22 +1334,22 @@
         <v>2001</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>1001</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>5</v>

--- a/AstrumConfig/Tables/Datas/Entity/#ActionTable.xlsx
+++ b/AstrumConfig/Tables/Datas/Entity/#ActionTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17600"/>
+    <workbookView windowHeight="17600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
   </si>
   <si>
     <t>[
-  {"tag":"idle","startFromFrames":12,"blendInFrames":4,"priority":0}
+  {"tag":"move","startFromFrames":12,"blendInFrames":4,"priority":0}
 ]</t>
   </si>
   <si>
@@ -1119,8 +1119,8 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
@@ -1134,6 +1134,8 @@
     <col min="9" max="9" width="19.5727272727273" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="21.8545454545455" customWidth="1"/>
+    <col min="12" max="12" width="74.6363636363636" customWidth="1"/>
+    <col min="13" max="13" width="56.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1291,7 +1293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="174" spans="2:13">
+    <row r="6" ht="72.5" spans="2:13">
       <c r="B6">
         <v>1002</v>
       </c>

--- a/AstrumConfig/Tables/Datas/Entity/#ActionTable.xlsx
+++ b/AstrumConfig/Tables/Datas/Entity/#ActionTable.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>idle</t>
+  </si>
+  <si>
+    <t>Assets/ArtRes/Unit/Role/Knight/Animation/Stand_Idle_B_1.anim</t>
   </si>
   <si>
     <t>[
@@ -131,6 +134,9 @@
   </si>
   <si>
     <t>walk</t>
+  </si>
+  <si>
+    <t>Assets/ArtRes/Unit/Role/Knight/Animation/Walk_F.anim</t>
   </si>
   <si>
     <t>Move</t>
@@ -1119,8 +1125,8 @@
   <sheetPr/>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="7"/>
@@ -1129,7 +1135,8 @@
     <col min="3" max="3" width="31.2818181818182" customWidth="1"/>
     <col min="4" max="4" width="24.2818181818182" customWidth="1"/>
     <col min="5" max="5" width="17.5727272727273" customWidth="1"/>
-    <col min="6" max="7" width="23.2818181818182" customWidth="1"/>
+    <col min="6" max="6" width="57.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="23.2818181818182" customWidth="1"/>
     <col min="8" max="8" width="26.4272727272727" customWidth="1"/>
     <col min="9" max="9" width="19.5727272727273" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
@@ -1277,7 +1284,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>1001</v>
@@ -1290,7 +1297,7 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="72.5" spans="2:13">
@@ -1298,16 +1305,16 @@
         <v>1002</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>1001</v>
@@ -1319,16 +1326,16 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>9</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -1336,22 +1343,22 @@
         <v>2001</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>1001</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>5</v>

--- a/AstrumConfig/Tables/Datas/Entity/#ActionTable.xlsx
+++ b/AstrumConfig/Tables/Datas/Entity/#ActionTable.xlsx
@@ -615,7 +615,7 @@
         <v>skill</v>
       </c>
       <c r="E8" t="str">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F8" t="str">
         <v>Assets/ArtRes/Unit/Role/Knight/Animation/OneHand_Base_Attack_C_3_InPlace.anim</v>
@@ -646,7 +646,7 @@
         <v>skill</v>
       </c>
       <c r="E9" t="str">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F9" t="str">
         <v>Assets/ArtRes/Unit/Role/Knight/Animation/OneHand_Base_Attack_C_3_InPlace.anim</v>
